--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>107.862277731936</v>
+        <v>112.466131</v>
       </c>
       <c r="H2">
-        <v>107.862277731936</v>
+        <v>337.3983929999999</v>
       </c>
       <c r="I2">
-        <v>0.3102773504997785</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="J2">
-        <v>0.3102773504997785</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N2">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q2">
-        <v>118.6433067182384</v>
+        <v>147.0052296043066</v>
       </c>
       <c r="R2">
-        <v>118.6433067182384</v>
+        <v>1323.04706643876</v>
       </c>
       <c r="S2">
-        <v>0.003363163875604513</v>
+        <v>0.003704081075671977</v>
       </c>
       <c r="T2">
-        <v>0.003363163875604513</v>
+        <v>0.003704081075671977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>107.862277731936</v>
+        <v>112.466131</v>
       </c>
       <c r="H3">
-        <v>107.862277731936</v>
+        <v>337.3983929999999</v>
       </c>
       <c r="I3">
-        <v>0.3102773504997785</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="J3">
-        <v>0.3102773504997785</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q3">
-        <v>8635.69445316832</v>
+        <v>9022.734480079043</v>
       </c>
       <c r="R3">
-        <v>8635.69445316832</v>
+        <v>81204.61032071139</v>
       </c>
       <c r="S3">
-        <v>0.2447947248691215</v>
+        <v>0.2273452456652925</v>
       </c>
       <c r="T3">
-        <v>0.2447947248691215</v>
+        <v>0.2273452456652925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>107.862277731936</v>
+        <v>112.466131</v>
       </c>
       <c r="H4">
-        <v>107.862277731936</v>
+        <v>337.3983929999999</v>
       </c>
       <c r="I4">
-        <v>0.3102773504997785</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="J4">
-        <v>0.3102773504997785</v>
+        <v>0.2948491373870378</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N4">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q4">
-        <v>2191.406255174478</v>
+        <v>2532.046578120818</v>
       </c>
       <c r="R4">
-        <v>2191.406255174478</v>
+        <v>22788.41920308737</v>
       </c>
       <c r="S4">
-        <v>0.06211946175505247</v>
+        <v>0.0637998106460734</v>
       </c>
       <c r="T4">
-        <v>0.06211946175505247</v>
+        <v>0.0637998106460734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.1096900005867</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H5">
-        <v>82.1096900005867</v>
+        <v>246.782684</v>
       </c>
       <c r="I5">
-        <v>0.2361972841613468</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="J5">
-        <v>0.2361972841613468</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N5">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q5">
-        <v>90.31670144672573</v>
+        <v>107.5237638247644</v>
       </c>
       <c r="R5">
-        <v>90.31670144672573</v>
+        <v>967.7138744228799</v>
       </c>
       <c r="S5">
-        <v>0.002560193879210988</v>
+        <v>0.002709269186139656</v>
       </c>
       <c r="T5">
-        <v>0.002560193879210988</v>
+        <v>0.002709269186139656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.1096900005867</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H6">
-        <v>82.1096900005867</v>
+        <v>246.782684</v>
       </c>
       <c r="I6">
-        <v>0.2361972841613468</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="J6">
-        <v>0.2361972841613468</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q6">
-        <v>6573.8848594655</v>
+        <v>6599.482031360034</v>
       </c>
       <c r="R6">
-        <v>6573.8848594655</v>
+        <v>59395.33828224031</v>
       </c>
       <c r="S6">
-        <v>0.1863489200806228</v>
+        <v>0.1662867135230257</v>
       </c>
       <c r="T6">
-        <v>0.1863489200806228</v>
+        <v>0.1662867135230257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.1096900005867</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H7">
-        <v>82.1096900005867</v>
+        <v>246.782684</v>
       </c>
       <c r="I7">
-        <v>0.2361972841613468</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="J7">
-        <v>0.2361972841613468</v>
+        <v>0.2156609604819841</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N7">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O7">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P7">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q7">
-        <v>1668.198484783595</v>
+        <v>1852.010156318887</v>
       </c>
       <c r="R7">
-        <v>1668.198484783595</v>
+        <v>16668.09140686999</v>
       </c>
       <c r="S7">
-        <v>0.04728817020151304</v>
+        <v>0.04666497777281876</v>
       </c>
       <c r="T7">
-        <v>0.04728817020151304</v>
+        <v>0.04666497777281876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>157.659844767478</v>
+        <v>186.7091623333333</v>
       </c>
       <c r="H8">
-        <v>157.659844767478</v>
+        <v>560.127487</v>
       </c>
       <c r="I8">
-        <v>0.4535253653388747</v>
+        <v>0.489489902130978</v>
       </c>
       <c r="J8">
-        <v>0.4535253653388747</v>
+        <v>0.489489902130978</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N8">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O8">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P8">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q8">
-        <v>173.4182302953487</v>
+        <v>244.0487908136489</v>
       </c>
       <c r="R8">
-        <v>173.4182302953487</v>
+        <v>2196.43911732284</v>
       </c>
       <c r="S8">
-        <v>0.004915860351782691</v>
+        <v>0.006149281287656878</v>
       </c>
       <c r="T8">
-        <v>0.004915860351782691</v>
+        <v>0.006149281287656878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>157.659844767478</v>
+        <v>186.7091623333333</v>
       </c>
       <c r="H9">
-        <v>157.659844767478</v>
+        <v>560.127487</v>
       </c>
       <c r="I9">
-        <v>0.4535253653388747</v>
+        <v>0.489489902130978</v>
       </c>
       <c r="J9">
-        <v>0.4535253653388747</v>
+        <v>0.489489902130978</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P9">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q9">
-        <v>12622.598702482</v>
+        <v>14978.97350742547</v>
       </c>
       <c r="R9">
-        <v>12622.598702482</v>
+        <v>134810.7615668292</v>
       </c>
       <c r="S9">
-        <v>0.3578108967685571</v>
+        <v>0.3774242076366319</v>
       </c>
       <c r="T9">
-        <v>0.3578108967685571</v>
+        <v>0.3774242076366319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>157.659844767478</v>
+        <v>186.7091623333333</v>
       </c>
       <c r="H10">
-        <v>157.659844767478</v>
+        <v>560.127487</v>
       </c>
       <c r="I10">
-        <v>0.4535253653388747</v>
+        <v>0.489489902130978</v>
       </c>
       <c r="J10">
-        <v>0.4535253653388747</v>
+        <v>0.489489902130978</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N10">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O10">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P10">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q10">
-        <v>3203.128816470314</v>
+        <v>4203.54369254439</v>
       </c>
       <c r="R10">
-        <v>3203.128816470314</v>
+        <v>37831.89323289951</v>
       </c>
       <c r="S10">
-        <v>0.09079860821853492</v>
+        <v>0.1059164132066893</v>
       </c>
       <c r="T10">
-        <v>0.09079860821853492</v>
+        <v>0.1059164132066893</v>
       </c>
     </row>
   </sheetData>
